--- a/Analyses/main study - LLM/output/G3/summaryGraphics_SAR_adj.xlsx
+++ b/Analyses/main study - LLM/output/G3/summaryGraphics_SAR_adj.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\Article_SoftRobotIntervention\Analyses\main study - LLM\output\G3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\Article_SoftRobotIntervention_2\Analyses\main study - LLM\output\G3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A647D0B-C096-4130-8C7F-170EABB97729}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F5269B-1D19-443F-8FCC-1E28F942D846}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,49 +37,49 @@
     <t>TP</t>
   </si>
   <si>
-    <t>Perceived technological possibilities for socially assistive robots encompass a range of benefits and risks, with participants differentiating between traditional rigid robots and flexible, electronic-free soft robots. Both types of robots share characteristics such as providing support, versatility, and scalability, highlighting their potential to enhance caregiving tasks and improve patient outcomes. However, soft robots are distinguished by their unique attributes, including their ability to be used in different settings, adaptability, and emotional support capabilities. In contrast, rigid robots are perceived as more advanced in terms of medical diagnosis, adaptability, availability, and rapid advancement and training, emphasizing their potential to alleviate the workload of specialists and provide continuous care. Notably, concerns about usability and technical malfunctions are more pronounced for soft robots, whereas rigid robots are seen as more efficient in terms of time saving and data storage capacity. Overall, the perceived benefits and risks of socially assistive robots underscore the need for careful consideration of their design, functionality, and implementation in various contexts.</t>
-  </si>
-  <si>
     <t>TL</t>
   </si>
   <si>
-    <t>Perceived technological limitations of socially assistive robots were differentiated between traditional rigid robots and flexible, electronic-free soft robots. Notably, both types of robots share concerns related to their potential negative outcomes or issues in interactions with humans, highlighting the importance of ensuring safe and beneficial interactions. However, soft robots are distinguished by their unique attributes, including their potential to offer more personalized and adaptable assistance, as they are less prone to technical errors and defects. In contrast, rigid robots are perceived to have limited interaction capabilities, lower adaptability, and restricted ability to provide assistance, particularly in urgent or critical scenarios. Furthermore, rigid robots are seen as having limitations in understanding human emotions, handling spontaneous situations, and overcoming language barriers. Overall, the most significant arguments emphasize the need for socially assistive robots to prioritize safe and beneficial interactions, while also addressing their technological limitations to provide more effective and personalized support.</t>
-  </si>
-  <si>
     <t>SA</t>
   </si>
   <si>
-    <t>Perceived safety is a crucial aspect in the development of socially assistive robots, with participants differentiating between traditional rigid robots and flexible, electronic-free soft robots. While both types of robots are perceived to offer benefits in terms of operational efficiency, reliability, and objectivity, soft robots are distinguished by their unique material properties, which are associated with a significantly lower risk of injury during interactions or accidents. The soft materials used in these robots lead to higher acceptance and perceived safety, as they reduce the risk of injury and are less likely to cause harm. In contrast, rigid robots are primarily valued for their efficiency, reliability, and ability to make objective decisions, but are also seen as more likely to cause injury due to their rigid structure. Overall, the perceived safety of socially assistive robots is influenced by a complex interplay of factors, with soft robots offering a unique advantage in terms of material safety, while rigid robots excel in terms of operational efficiency and reliability.</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>Perceived risks associated with socially assistive robots, including potential physical harm, technical issues, lack of regulations, data security, and environmental vulnerabilities, were differentiated by participants between traditional rigid robots and flexible, electronic-free soft robots. While both types of robots share concerns related to physical harm and lack of regulations, rigid robots are perceived to pose a higher risk of technical issues, data security breaches, and environmental vulnerabilities. In contrast, soft robots are distinguished by their unique attributes, including a lower perceived risk of technical issues and an absence of concerns related to data security and environmental vulnerabilities. Notably, participants highlighted the potential for soft robots to mitigate risks associated with traditional rigid robots, such as the risk of injury and helplessness in case of failures. Overall, the findings suggest that the perceived risks of socially assistive robots are influenced by their design and functionality, with soft robots potentially offering a safer and more reliable alternative.</t>
-  </si>
-  <si>
     <t>HRIP</t>
   </si>
   <si>
-    <t>Perceived positive Human-Robot-Interaction with socially assistive robots is characterized by their ability to provide assistance and cognitive support, emotional support and social interaction, and brain activation, among other benefits. Both rigid and soft robots share these characteristics, with rigid robots being perceived as more effective in providing assistance and cognitive support, emotional support, and brain activation. However, soft robots are distinguished by their unique attributes, such as their ability to provide a realistic "companion" experience, fostering emotional attachment and social interaction, particularly for individuals with autism or similar disorders. Additionally, soft robots are appreciated for their haptic features, allowing for a more pleasant and tactile interaction. Overall, the benefits of socially assistive robots, regardless of their design, lie in their ability to provide individualized attention, support, and companionship, ultimately enhancing the quality of life for their users.</t>
-  </si>
-  <si>
     <t>HRIN</t>
   </si>
   <si>
-    <t>Perceived negative Human-Robot-Interaction is a pressing concern in the development of socially assistive robots, with participants expressing apprehensions regarding the limitations and potential risks of these machines. Both traditional rigid robots and flexible, electronic-free soft robots share common concerns, such as individual response to physical closeness, reliance and trust, and the risk of unhealthy relationships. However, soft robots are distinguished by their unique attributes, including their ability to elicit emotional responses and form emotional bonds with users, which can lead to a greater risk of emotional dependence. Furthermore, soft robots are perceived as less intimidating and more approachable, with participants expressing fewer concerns about fear and age-related attitudes. Notably, the importance of technical knowledge and competence is emphasized in the context of rigid robots, whereas soft robots are seen as more accessible and user-friendly. Ultimately, the development of socially assistive robots must carefully consider these perceived risks and benefits to ensure that these machines are designed to support and augment human relationships, rather than replace them.</t>
-  </si>
-  <si>
     <t>AP</t>
   </si>
   <si>
-    <t>Perceived positive anthropomorphism in socially assistive robots is influenced by their design characteristics, with both traditional rigid robots and flexible, electronic-free soft robots sharing attributes that facilitate empathy, connection, and emotional support. However, soft robots are distinguished by their unique features, such as their lifelike, relatable materials, which enhance their approachability and human-like nature, fostering physical affection and emotional bonds. The soft robots' design elements, including their silicone materials, promote a sense of closeness and facilitate connection, making them more suitable for therapeutic applications and providing emotional support, particularly in challenging situations. Overall, the perceived positive anthropomorphism of soft robots is more pronounced, emphasizing their potential to serve as friends, listeners, and emotional supporters, and highlighting their advantages in providing comfort and alleviating stress in various contexts.</t>
-  </si>
-  <si>
     <t>AN</t>
   </si>
   <si>
-    <t>Perceived negative anthropomorphism in socially assistive robots is a pressing concern, with participants differentiating between traditional rigid robots and flexible, electronic-free soft robots. While both types of robots share concerns related to deception, limitations, and lack of empathy, soft robots are distinguished by their unique attributes, such as the blurring of boundaries between humans and machines, and the potential for misinterpreting emotions. Notably, rigid robots are perceived as having a higher potential for harm, manipulation, and emotional impact, with participants expressing concerns about the uncanny valley, humanization, and the disruption of emotional connections. In contrast, soft robots are seen as having a more limited capacity for emotional support and connection, with participants highlighting their inability to convey human warmth and genuine emotional responses. Overall, the findings suggest that perceived negative anthropomorphism is a multifaceted issue, with both rigid and soft robots presenting distinct challenges and concerns that must be addressed in the development of socially assistive robots.</t>
+    <t>The perceived benefits and risks of socially assistive robots are multifaceted, with participants highlighting their potential to provide continuous and comprehensive assistance, adapt to individual needs, and offer versatility in various tasks and functions. The availability of these robots beyond standard operating hours is a significant advantage, allowing for 24/7 support and care. Additionally, their ability to rapidly impart new information and skills through advanced training methods, relieve specialists of routine tasks, and provide therapy and emotional support are seen as valuable benefits. Furthermore, the potential for data storage, scalability, and time-saving capabilities are also emphasized. However, concerns about usability, including technical malfunctions and potential user health impacts, are also raised. Notably, soft robots are perceived as having unique attributes, such as being versatile in different settings and having potential advantages in terms of scalability. Overall, the benefits of socially assistive robots, particularly in terms of their availability and adaptability, are seen as significant, but their potential risks and limitations, including usability concerns, must also be carefully considered.</t>
+  </si>
+  <si>
+    <t>The perceived technological limitations of socially assistive robots raise significant concerns regarding their potential risks and benefits. A primary concern revolves around the restricted ability of these robots to adapt to individual needs or preferences, with participants expressing worries about limited customization options, complex operation, and defects that may hinder their functionality. This limited adaptability is further exacerbated by concerns about the robots' ability to offer only restricted support, particularly in urgent or critical scenarios, where technical errors, malfunction, or misprogramming may occur. Moreover, participants highlighted the importance of ensuring safe and beneficial interactions, emphasizing the need to mitigate potential negative outcomes or issues that may arise from human-robot interactions. Notably, soft robots are perceived to have unique attributes, such as their flexibility and electronic-free design, which may alleviate some of these concerns. However, they also raise distinct concerns, such as their potential limitations in providing assistance in the future, particularly in scenarios where human expertise may no longer be available. Overall, the perceived technological limitations of socially assistive robots underscore the need for careful consideration of their design, functionality, and potential risks to ensure their safe and effective integration into human society.</t>
+  </si>
+  <si>
+    <t>When evaluating the risks and benefits of perceived safety in socially assistive robots, participants' perceptions were largely influenced by the robots' material composition, with soft robots being viewed as significantly safer due to their low risk of injury during interactions or accidents. This emphasis on material safety was closely tied to the reliability of robots, with both rigid and soft robots being seen as reliable and available 24/7, capable of quick emergency responses and accurate decision-making. The objectivity of robots, stemming from their perceived lack of emotional bias, was also seen as a benefit, particularly in decision-making contexts. While operational efficiency was highlighted as a key advantage of rigid robots, with their ability to work faster and more efficiently, soft robots were also seen as efficient, albeit to a lesser extent. Notably, the unique attributes of soft robots, such as their soft materials, were seen as reducing the risk of injury and increasing acceptance. Overall, the perceived safety benefits of socially assistive robots, particularly soft robots, lie in their reliability, objectivity, and material safety, which may lead to increased trust and adoption in various applications.</t>
+  </si>
+  <si>
+    <t>The perceived risks associated with socially assistive robots are multifaceted and influenced by the type of robot, with traditional rigid robots and flexible, electronic-free soft robots eliciting distinct concerns. A primary concern across both types of robots is the potential for physical harm, with participants expressing worries about malfunctioning robots causing unintended reactions or injuries. Technical issues, such as malfunctions and glitches, are also a significant concern, particularly for rigid robots, which are seen as more prone to errors and accidents. The risk of data security breaches is another prominent concern, primarily associated with rigid robots, as participants worry about the potential for data losses and misuse. In contrast, soft robots are perceived as more vulnerable to technical problems, such as faulty processing, which could lead to helplessness in case of failures. Notably, soft robots are distinguished by their unique attributes, including a perceived lower risk of data security breaches and a reduced likelihood of technical malfunctions. Overall, the findings highlight the importance of addressing these perceived risks, particularly technical issues and data security concerns, to ensure the safe and reliable integration of socially assistive robots into human environments.</t>
+  </si>
+  <si>
+    <t>The perceived benefits of socially assistive robots in Human-Robot-Interaction are multifaceted, with participants highlighting their potential to provide emotional support and social interaction, particularly for introverted or lonely individuals. This is evident in the ability of robots to foster increased engagement with others, provide companionship, and address social isolation. Additionally, robots are seen as capable of assuming degrading tasks, enhancing efficiency and quality of life, and improving attention and supporting individuals with depression. The target demographic for these benefits includes socially isolated individuals, the elderly, and those with special needs or learning difficulties. Notably, soft robots are perceived as offering unique advantages, such as their potential to provide a realistic "companion" and facilitate emotional attachment, which can contribute to therapy success. The incorporation of haptics, such as soft materials and tactile interactions, is also seen as enhancing acceptance and comfort in Human-Robot-Interaction. Overall, the benefits of socially assistive robots are closely tied to their ability to provide individualized attention, patience, and emotional support, with soft robots offering a distinct set of advantages that can foster more natural and comfortable interactions.</t>
+  </si>
+  <si>
+    <t>The perceived risks and benefits of Human-Robot-Interaction (HRI) with socially assistive robots are multifaceted and influenced by the type of robot, with traditional rigid robots and flexible, electronic-free soft robots eliciting distinct concerns and expectations. A prominent concern is the lack of humanity in HRI, with participants emphasizing the irreplaceable nature of human interactions and empathy, particularly in the context of rigid robots. This is closely tied to the risk of emotional dependence on robots, which is a significant concern for both rigid and soft robots, as individuals may form strong emotional attachments to these machines. Furthermore, participants expressed apprehension regarding the potential for unhealthy relationships, superficial interactions, and deception, highlighting the need for careful consideration of the dynamics and quality of HRI. While rigid robots are often seen as more intimidating and potentially fear-inducing, soft robots are perceived as more approachable, but still raise concerns about individual responses to physical closeness and the risk of loneliness. Notably, the importance of technical knowledge and competence in operating socially assistive robots is emphasized, particularly for rigid robots. Overall, the findings suggest that the design and implementation of socially assistive robots must prioritize emotional understanding, empathy, and personalized interactions to mitigate the risks and maximize the benefits of HRI.</t>
+  </si>
+  <si>
+    <t>The perceived positive anthropomorphism of socially assistive robots is influenced by their design, with significant implications for human-robot interaction. Notably, participants frequently attributed empathetic qualities to both rigid and soft robots, highlighting their potential to recognize and respond to emotions, thereby enhancing the interaction experience. The material composition of soft robots, in particular, was seen as fostering physical affection and approachability, with silicone-based designs evoking a sense of human-likeness. This, in turn, facilitated the formation of relational connections, with participants emphasizing the ease of bonding with soft robots. Emotional support was another key benefit, with both rigid and soft robots viewed as friends or listeners that could aid in coping with challenging emotional situations. The therapeutic potential of socially assistive robots was also recognized, particularly in the context of soft robots, which were seen as providing comfort and support to emotionally vulnerable individuals. Overall, the findings suggest that the design of socially assistive robots, particularly the use of soft materials, can have a profound impact on human-robot interaction, with significant benefits for emotional support and therapeutic applications. However, it is essential to consider the potential risks associated with anthropomorphism, such as over-reliance on robots for emotional support, to ensure that these technologies are developed and implemented in a responsible and ethical manner.</t>
+  </si>
+  <si>
+    <t>The perceived negative anthropomorphism of socially assistive robots raises significant concerns regarding their potential risks and benefits. A primary concern is the limitation of robots in understanding and responding to human emotions and needs, with participants frequently highlighting the inability of robots to convey human warmth, gentle touch, and genuine emotional connection. This limitation is particularly pronounced in rigid robots, where participants emphasized the importance of human intuition and emotional integrity. Soft robots, while also lacking in empathy, were perceived as having a unique attribute - the potential to deceive individuals into believing they possess empathy, which could be harmful to those in need. Furthermore, participants expressed concerns about the uncanny valley phenomenon, where robots' artificial nature becomes apparent, leading to discomfort and unease. The blurring of boundaries between humans and machines, as reflected in soft robots, also raised concerns about the impact of technological advancement. Ultimately, the perceived negative anthropomorphism of socially assistive robots underscores the need for careful consideration of their potential risks, particularly in scenarios involving vulnerable populations, and highlights the importance of developing robots that can provide genuine emotional support and connection.</t>
   </si>
 </sst>
 </file>
@@ -135,16 +135,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,13 +453,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="115.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="115.5703125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -471,90 +477,90 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
